--- a/biology/Zoologie/Howard_Curran/Howard_Curran.xlsx
+++ b/biology/Zoologie/Howard_Curran/Howard_Curran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Howard Curran est un entomologiste canadien, né le 20 mars 1894 à Orillia en Ontario et mort le 23 janvier 1972 à Leesburg en Floride.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son grand-père, son père et l’un de ses oncles sont éditeurs de journaux. Son père tente l’aventure au Klondike en 1897 et n’en revient qu’en 1904 alors qu'il rapporte une petite trentaine de grammes d'or.
 Curran s’intéresse à la nature très tôt et élève des chenilles à six ou sept ans. Avec l’un de ses frères, il constitue une collection d’insectes et reçoit l’aide de l’université du Minnesota (sous forme d’épingles à insectes et de documents entomologiques). Il quitte l’école à 12 ans et entre en apprentissage à la fabrique de son père qui édite The Orillia News. Il quitte le domicile familial à 15 ans et travaille au Enterprise, journal de Yorktown, et au News, journal de Wadena.
@@ -550,7 +564,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul H. Arnaud Jr. et Thelma C. Owen (1981). Charles Howard Curran (1894-1972). Myia, 2 : 393 p.
 </t>
